--- a/info/baseline_type.xlsx
+++ b/info/baseline_type.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\yajuan_phd\info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/placenameday/R study/yajuan_phd/info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEBFC9C-AB98-4115-B608-FB34375864D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCEB8E6-F7AA-A844-B53B-767394877A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6600" yWindow="1800" windowWidth="15820" windowHeight="21320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$46</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -185,7 +188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,15 +522,15 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="13.53125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,7 +541,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -549,7 +552,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -560,7 +563,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -571,7 +574,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -582,7 +585,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -593,7 +596,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -604,7 +607,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -615,7 +618,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -626,7 +629,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -637,7 +640,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -648,7 +651,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -659,7 +662,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -670,7 +673,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -681,7 +684,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -692,7 +695,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -703,7 +706,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -714,7 +717,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -725,7 +728,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -736,7 +739,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -747,7 +750,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -758,7 +761,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -769,7 +772,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -780,7 +783,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -791,7 +794,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -802,7 +805,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -813,7 +816,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -824,7 +827,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -835,7 +838,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -846,7 +849,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -857,7 +860,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -868,7 +871,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -879,7 +882,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -890,7 +893,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -901,7 +904,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -912,7 +915,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -923,7 +926,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -934,7 +937,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -945,7 +948,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -956,7 +959,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -967,7 +970,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -978,7 +981,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -989,7 +992,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1000,7 +1003,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1011,7 +1014,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1022,7 +1025,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>45</v>
       </c>

--- a/info/baseline_type.xlsx
+++ b/info/baseline_type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/placenameday/R study/yajuan_phd/info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\yajuan_phd\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCEB8E6-F7AA-A844-B53B-767394877A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75F2C34-8317-4934-84D8-6CDC2FD0ECB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="1800" windowWidth="15820" windowHeight="21320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
   <si>
-    <t>trail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>baseline</t>
   </si>
   <si>
@@ -181,6 +177,10 @@
   </si>
   <si>
     <t>negative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>block</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -188,7 +188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,518 +522,518 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="13.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/info/baseline_type.xlsx
+++ b/info/baseline_type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\yajuan_phd\info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/placenameday/R study/yajuan_phd/info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75F2C34-8317-4934-84D8-6CDC2FD0ECB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F902A36B-ABAE-3C45-88AD-E2BEB4EFAB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26640" yWindow="7440" windowWidth="21800" windowHeight="12980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -168,10 +168,6 @@
     <t>b45-1.jpg</t>
   </si>
   <si>
-    <t>Baseline type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>neutral</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,6 +177,10 @@
   </si>
   <si>
     <t>block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseline_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -188,7 +188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,26 +522,26 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="13.46484375" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -549,10 +549,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -560,10 +560,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -571,10 +571,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -582,10 +582,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -593,10 +593,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -604,10 +604,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -615,10 +615,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -626,10 +626,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -637,10 +637,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -648,10 +648,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -659,10 +659,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -670,10 +670,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -681,10 +681,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -692,10 +692,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -703,10 +703,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -714,10 +714,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -725,10 +725,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -736,10 +736,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -747,10 +747,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -758,10 +758,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -769,10 +769,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -780,10 +780,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -791,10 +791,10 @@
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -802,10 +802,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -813,10 +813,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -824,10 +824,10 @@
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -835,10 +835,10 @@
         <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -846,10 +846,10 @@
         <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -857,10 +857,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -868,10 +868,10 @@
         <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -879,10 +879,10 @@
         <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -890,10 +890,10 @@
         <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -901,10 +901,10 @@
         <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -912,10 +912,10 @@
         <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -923,10 +923,10 @@
         <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -934,10 +934,10 @@
         <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -945,10 +945,10 @@
         <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -956,10 +956,10 @@
         <v>38</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -967,10 +967,10 @@
         <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -978,10 +978,10 @@
         <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -989,10 +989,10 @@
         <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1000,10 +1000,10 @@
         <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1011,10 +1011,10 @@
         <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1022,10 +1022,10 @@
         <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
